--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44601.375</v>
+        <v>44612.41666666666</v>
       </c>
       <c r="B2" t="n">
-        <v>53651000</v>
+        <v>716</v>
       </c>
       <c r="C2" t="n">
-        <v>54000000</v>
+        <v>723</v>
       </c>
       <c r="D2" t="n">
-        <v>52560000</v>
+        <v>716</v>
       </c>
       <c r="E2" t="n">
-        <v>53660000</v>
+        <v>723</v>
       </c>
       <c r="F2" t="n">
-        <v>5006.39849973</v>
+        <v>53842.60168485</v>
       </c>
       <c r="G2" t="n">
-        <v>266603510170.6266</v>
+        <v>38737480.35259132</v>
       </c>
       <c r="H2" t="n">
-        <v>1152000</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -534,230 +534,2244 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44602.375</v>
+        <v>44612.45833333334</v>
       </c>
       <c r="B3" t="n">
-        <v>53659000</v>
+        <v>723</v>
       </c>
       <c r="C3" t="n">
-        <v>55380000</v>
+        <v>728</v>
       </c>
       <c r="D3" t="n">
-        <v>52604000</v>
+        <v>719</v>
       </c>
       <c r="E3" t="n">
-        <v>53123000</v>
+        <v>721</v>
       </c>
       <c r="F3" t="n">
-        <v>9079.394422650001</v>
+        <v>221175.13068917</v>
       </c>
       <c r="G3" t="n">
-        <v>488428411754.5602</v>
+        <v>160289771.9231933</v>
       </c>
       <c r="H3" t="n">
-        <v>2220800</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>54811000</v>
+        <v>725.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9943456075024134</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9943456075024134</v>
       </c>
       <c r="L3" t="n">
-        <v>3.079673788108228</v>
+        <v>0.5654392497586591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44603.375</v>
+        <v>44612.5</v>
       </c>
       <c r="B4" t="n">
-        <v>53040000</v>
+        <v>720</v>
       </c>
       <c r="C4" t="n">
-        <v>53364000</v>
+        <v>722</v>
       </c>
       <c r="D4" t="n">
-        <v>51300000</v>
+        <v>717</v>
       </c>
       <c r="E4" t="n">
-        <v>51882000</v>
+        <v>718</v>
       </c>
       <c r="F4" t="n">
-        <v>6124.94691657</v>
+        <v>53550.20217924</v>
       </c>
       <c r="G4" t="n">
-        <v>321480090359.7405</v>
+        <v>38532824.20493513</v>
       </c>
       <c r="H4" t="n">
-        <v>1651200</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>55260800</v>
+        <v>722.7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9943456075024134</v>
       </c>
       <c r="L4" t="n">
-        <v>3.079673788108228</v>
+        <v>0.5654392497586591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44604.375</v>
+        <v>44612.54166666666</v>
       </c>
       <c r="B5" t="n">
-        <v>51875000</v>
+        <v>719</v>
       </c>
       <c r="C5" t="n">
-        <v>52299000</v>
+        <v>721</v>
       </c>
       <c r="D5" t="n">
-        <v>50835000</v>
+        <v>710</v>
       </c>
       <c r="E5" t="n">
-        <v>51597000</v>
+        <v>711</v>
       </c>
       <c r="F5" t="n">
-        <v>4680.16804965</v>
+        <v>126391.86507406</v>
       </c>
       <c r="G5" t="n">
-        <v>241620206211.6828</v>
+        <v>90218987.13079377</v>
       </c>
       <c r="H5" t="n">
-        <v>1171200</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>53526200</v>
+        <v>720.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9868147120055517</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9812348743014795</v>
       </c>
       <c r="L5" t="n">
-        <v>3.079673788108228</v>
+        <v>1.876512569852051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44605.375</v>
+        <v>44612.58333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>51619000</v>
+        <v>710</v>
       </c>
       <c r="C6" t="n">
-        <v>52190000</v>
+        <v>719</v>
       </c>
       <c r="D6" t="n">
-        <v>51400000</v>
+        <v>707</v>
       </c>
       <c r="E6" t="n">
-        <v>51550000</v>
+        <v>707</v>
       </c>
       <c r="F6" t="n">
-        <v>2737.45244662</v>
+        <v>189310.33585956</v>
       </c>
       <c r="G6" t="n">
-        <v>141796428812.6518</v>
+        <v>134488736.9311232</v>
       </c>
       <c r="H6" t="n">
-        <v>632000</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>52790200</v>
+        <v>713.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.9911678115799805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9725684230073547</v>
       </c>
       <c r="L6" t="n">
-        <v>3.079673788108228</v>
+        <v>2.743157699264531</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44606.375</v>
+        <v>44612.625</v>
       </c>
       <c r="B7" t="n">
-        <v>51550000</v>
+        <v>707</v>
       </c>
       <c r="C7" t="n">
-        <v>52041000</v>
+        <v>708</v>
       </c>
       <c r="D7" t="n">
-        <v>50744000</v>
+        <v>696</v>
       </c>
       <c r="E7" t="n">
-        <v>51586000</v>
+        <v>697</v>
       </c>
       <c r="F7" t="n">
-        <v>4253.6279361</v>
+        <v>347692.25002938</v>
       </c>
       <c r="G7" t="n">
-        <v>218529350233.5478</v>
+        <v>243572934.8052472</v>
       </c>
       <c r="H7" t="n">
-        <v>1037600</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>52182000</v>
+        <v>710.6</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9692032621189177</v>
+        <v>0.9725684230073547</v>
       </c>
       <c r="L7" t="n">
-        <v>3.079673788108228</v>
+        <v>2.743157699264531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44607.375</v>
+        <v>44612.66666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>51586000</v>
+        <v>697</v>
       </c>
       <c r="C8" t="n">
-        <v>53740000</v>
+        <v>703</v>
       </c>
       <c r="D8" t="n">
-        <v>51462000</v>
+        <v>692</v>
       </c>
       <c r="E8" t="n">
-        <v>53585000</v>
+        <v>703</v>
       </c>
       <c r="F8" t="n">
-        <v>3555.76674142</v>
+        <v>87347.61725893</v>
       </c>
       <c r="G8" t="n">
-        <v>188486240431.1781</v>
+        <v>60797408.39397153</v>
       </c>
       <c r="H8" t="n">
-        <v>1822400</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>52623600</v>
+        <v>700.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.018269369636437</v>
+        <v>1.003425635169854</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9869099947674087</v>
+        <v>0.9759000876022984</v>
       </c>
       <c r="L8" t="n">
-        <v>1.30900052325913</v>
+        <v>2.409991239770159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44612.70833333334</v>
+      </c>
+      <c r="B9" t="n">
+        <v>700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>701</v>
+      </c>
+      <c r="D9" t="n">
+        <v>688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>688</v>
+      </c>
+      <c r="F9" t="n">
+        <v>167678.82773074</v>
+      </c>
+      <c r="G9" t="n">
+        <v>116249899.0675336</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>703.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9759000876022984</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.409991239770159</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44612.75</v>
+      </c>
+      <c r="B10" t="n">
+        <v>687</v>
+      </c>
+      <c r="C10" t="n">
+        <v>692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>682</v>
+      </c>
+      <c r="E10" t="n">
+        <v>689</v>
+      </c>
+      <c r="F10" t="n">
+        <v>120595.11223317</v>
+      </c>
+      <c r="G10" t="n">
+        <v>82883172.2557428</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>690.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9972499638153134</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9732163270487533</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.678367295124673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44612.79166666666</v>
+      </c>
+      <c r="B11" t="n">
+        <v>689</v>
+      </c>
+      <c r="C11" t="n">
+        <v>695</v>
+      </c>
+      <c r="D11" t="n">
+        <v>686</v>
+      </c>
+      <c r="E11" t="n">
+        <v>687</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36411.3088081</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25083766.20433004</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>692</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9927745664739884</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9661844171712334</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.381558282876662</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44612.83333333334</v>
+      </c>
+      <c r="B12" t="n">
+        <v>687</v>
+      </c>
+      <c r="C12" t="n">
+        <v>692</v>
+      </c>
+      <c r="D12" t="n">
+        <v>686</v>
+      </c>
+      <c r="E12" t="n">
+        <v>692</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36977.86509331</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25449905.75222417</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>689.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.003334783239089</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9694064327714853</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.05935672285147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44612.875</v>
+      </c>
+      <c r="B13" t="n">
+        <v>692</v>
+      </c>
+      <c r="C13" t="n">
+        <v>698</v>
+      </c>
+      <c r="D13" t="n">
+        <v>689</v>
+      </c>
+      <c r="E13" t="n">
+        <v>689</v>
+      </c>
+      <c r="F13" t="n">
+        <v>180264.14756825</v>
+      </c>
+      <c r="G13" t="n">
+        <v>125027596.7772589</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9930815797059672</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9626996716338332</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.730032836616681</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44612.91666666666</v>
+      </c>
+      <c r="B14" t="n">
+        <v>689</v>
+      </c>
+      <c r="C14" t="n">
+        <v>689</v>
+      </c>
+      <c r="D14" t="n">
+        <v>684</v>
+      </c>
+      <c r="E14" t="n">
+        <v>684</v>
+      </c>
+      <c r="F14" t="n">
+        <v>67195.49684476</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46105208.75098449</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>691.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9626996716338332</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.730032836616681</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44612.95833333334</v>
+      </c>
+      <c r="B15" t="n">
+        <v>685</v>
+      </c>
+      <c r="C15" t="n">
+        <v>685</v>
+      </c>
+      <c r="D15" t="n">
+        <v>673</v>
+      </c>
+      <c r="E15" t="n">
+        <v>679</v>
+      </c>
+      <c r="F15" t="n">
+        <v>292550.64444267</v>
+      </c>
+      <c r="G15" t="n">
+        <v>198953445.1745266</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>686.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9626996716338332</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.730032836616681</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B16" t="n">
+        <v>682</v>
+      </c>
+      <c r="C16" t="n">
+        <v>688</v>
+      </c>
+      <c r="D16" t="n">
+        <v>680</v>
+      </c>
+      <c r="E16" t="n">
+        <v>687</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23911.28418489</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16375774.05421358</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>685.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.002042007001167</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9646655111033305</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.533448889666946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44613.04166666666</v>
+      </c>
+      <c r="B17" t="n">
+        <v>685</v>
+      </c>
+      <c r="C17" t="n">
+        <v>691</v>
+      </c>
+      <c r="D17" t="n">
+        <v>684</v>
+      </c>
+      <c r="E17" t="n">
+        <v>687</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46874.52553643</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32157657.17206053</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>687.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9994180971777713</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9641041695199128</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.589583048008715</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44613.08333333334</v>
+      </c>
+      <c r="B18" t="n">
+        <v>687</v>
+      </c>
+      <c r="C18" t="n">
+        <v>695</v>
+      </c>
+      <c r="D18" t="n">
+        <v>685</v>
+      </c>
+      <c r="E18" t="n">
+        <v>691</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26554.94479354</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18354602.65468219</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>689.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.002757219561747</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9667624163956751</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.323758360432494</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44613.125</v>
+      </c>
+      <c r="B19" t="n">
+        <v>691</v>
+      </c>
+      <c r="C19" t="n">
+        <v>697</v>
+      </c>
+      <c r="D19" t="n">
+        <v>691</v>
+      </c>
+      <c r="E19" t="n">
+        <v>697</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9203.206079510001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6398394.15144698</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>694</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.004322766570605</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9709415046509877</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.905849534901228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44613.16666666666</v>
+      </c>
+      <c r="B20" t="n">
+        <v>697</v>
+      </c>
+      <c r="C20" t="n">
+        <v>698</v>
+      </c>
+      <c r="D20" t="n">
+        <v>695</v>
+      </c>
+      <c r="E20" t="n">
+        <v>695</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6483.37322755</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4520474.42681042</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>698.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9709415046509877</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.905849534901228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44613.20833333334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>693</v>
+      </c>
+      <c r="C21" t="n">
+        <v>698</v>
+      </c>
+      <c r="D21" t="n">
+        <v>692</v>
+      </c>
+      <c r="E21" t="n">
+        <v>698</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6971.48184551</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4844606.3218525</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>693.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.005908632367776</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9766784410525861</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.332155894741395</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44613.25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>694</v>
+      </c>
+      <c r="C22" t="n">
+        <v>695</v>
+      </c>
+      <c r="D22" t="n">
+        <v>690</v>
+      </c>
+      <c r="E22" t="n">
+        <v>692</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7757.40023112</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5359291.26465939</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>695.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9766784410525861</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.332155894741395</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44613.29166666666</v>
+      </c>
+      <c r="B23" t="n">
+        <v>694</v>
+      </c>
+      <c r="C23" t="n">
+        <v>708</v>
+      </c>
+      <c r="D23" t="n">
+        <v>693</v>
+      </c>
+      <c r="E23" t="n">
+        <v>708</v>
+      </c>
+      <c r="F23" t="n">
+        <v>60680.86148742</v>
+      </c>
+      <c r="G23" t="n">
+        <v>42482260.80185067</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>695.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.017972681524083</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9942319716250625</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5768028374937506</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44613.33333333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>707</v>
+      </c>
+      <c r="C24" t="n">
+        <v>710</v>
+      </c>
+      <c r="D24" t="n">
+        <v>700</v>
+      </c>
+      <c r="E24" t="n">
+        <v>702</v>
+      </c>
+      <c r="F24" t="n">
+        <v>122330.53667228</v>
+      </c>
+      <c r="G24" t="n">
+        <v>86439103.86962266</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>711.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9942319716250625</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5768028374937506</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44613.375</v>
+      </c>
+      <c r="B25" t="n">
+        <v>700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>779</v>
+      </c>
+      <c r="D25" t="n">
+        <v>694</v>
+      </c>
+      <c r="E25" t="n">
+        <v>702</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20062685.35350113</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14792948299.81729</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>703</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9985775248933144</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9928177013951549</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7182298604845094</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44613.41666666666</v>
+      </c>
+      <c r="B26" t="n">
+        <v>702</v>
+      </c>
+      <c r="C26" t="n">
+        <v>712</v>
+      </c>
+      <c r="D26" t="n">
+        <v>698</v>
+      </c>
+      <c r="E26" t="n">
+        <v>708</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1382963.7563037</v>
+      </c>
+      <c r="G26" t="n">
+        <v>976072885.0358527</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9928177013951549</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7182298604845094</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44613.45833333334</v>
+      </c>
+      <c r="B27" t="n">
+        <v>708</v>
+      </c>
+      <c r="C27" t="n">
+        <v>709</v>
+      </c>
+      <c r="D27" t="n">
+        <v>702</v>
+      </c>
+      <c r="E27" t="n">
+        <v>706</v>
+      </c>
+      <c r="F27" t="n">
+        <v>497817.82594174</v>
+      </c>
+      <c r="G27" t="n">
+        <v>350628850.8261282</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9928177013951549</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.7182298604845094</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44613.5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>706</v>
+      </c>
+      <c r="C28" t="n">
+        <v>706</v>
+      </c>
+      <c r="D28" t="n">
+        <v>701</v>
+      </c>
+      <c r="E28" t="n">
+        <v>703</v>
+      </c>
+      <c r="F28" t="n">
+        <v>627249.23317842</v>
+      </c>
+      <c r="G28" t="n">
+        <v>441189360.602942</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>708.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9928177013951549</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7182298604845094</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44613.54166666666</v>
+      </c>
+      <c r="B29" t="n">
+        <v>703</v>
+      </c>
+      <c r="C29" t="n">
+        <v>713</v>
+      </c>
+      <c r="D29" t="n">
+        <v>702</v>
+      </c>
+      <c r="E29" t="n">
+        <v>713</v>
+      </c>
+      <c r="F29" t="n">
+        <v>629338.00840099</v>
+      </c>
+      <c r="G29" t="n">
+        <v>444190127.6168883</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>704.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.012065294535131</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.004796339382179</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44613.58333333334</v>
+      </c>
+      <c r="B30" t="n">
+        <v>713</v>
+      </c>
+      <c r="C30" t="n">
+        <v>717</v>
+      </c>
+      <c r="D30" t="n">
+        <v>710</v>
+      </c>
+      <c r="E30" t="n">
+        <v>712</v>
+      </c>
+      <c r="F30" t="n">
+        <v>509627.48726001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>362756672.1225153</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>716.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9939969286611755</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9987644752758785</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6003071338824528</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44613.625</v>
+      </c>
+      <c r="B31" t="n">
+        <v>711</v>
+      </c>
+      <c r="C31" t="n">
+        <v>712</v>
+      </c>
+      <c r="D31" t="n">
+        <v>708</v>
+      </c>
+      <c r="E31" t="n">
+        <v>709</v>
+      </c>
+      <c r="F31" t="n">
+        <v>402084.30674551</v>
+      </c>
+      <c r="G31" t="n">
+        <v>285348724.0570464</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>713.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9987644752758785</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6003071338824528</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44613.66666666666</v>
+      </c>
+      <c r="B32" t="n">
+        <v>709</v>
+      </c>
+      <c r="C32" t="n">
+        <v>713</v>
+      </c>
+      <c r="D32" t="n">
+        <v>706</v>
+      </c>
+      <c r="E32" t="n">
+        <v>713</v>
+      </c>
+      <c r="F32" t="n">
+        <v>351092.61737899</v>
+      </c>
+      <c r="G32" t="n">
+        <v>248973185.8684544</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>710.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.003942551393973</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.002702155550129</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2084187362126149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44613.70833333334</v>
+      </c>
+      <c r="B33" t="n">
+        <v>713</v>
+      </c>
+      <c r="C33" t="n">
+        <v>716</v>
+      </c>
+      <c r="D33" t="n">
+        <v>708</v>
+      </c>
+      <c r="E33" t="n">
+        <v>708</v>
+      </c>
+      <c r="F33" t="n">
+        <v>326718.38146459</v>
+      </c>
+      <c r="G33" t="n">
+        <v>232565683.804471</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>715.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9900713186966857</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.992746645405525</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.199217543334549</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44613.75</v>
+      </c>
+      <c r="B34" t="n">
+        <v>708</v>
+      </c>
+      <c r="C34" t="n">
+        <v>711</v>
+      </c>
+      <c r="D34" t="n">
+        <v>706</v>
+      </c>
+      <c r="E34" t="n">
+        <v>706</v>
+      </c>
+      <c r="F34" t="n">
+        <v>299834.55912307</v>
+      </c>
+      <c r="G34" t="n">
+        <v>212235007.7580638</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>710.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9938063063063063</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9865978767684412</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.811159326568404</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44613.79166666666</v>
+      </c>
+      <c r="B35" t="n">
+        <v>707</v>
+      </c>
+      <c r="C35" t="n">
+        <v>709</v>
+      </c>
+      <c r="D35" t="n">
+        <v>694</v>
+      </c>
+      <c r="E35" t="n">
+        <v>699</v>
+      </c>
+      <c r="F35" t="n">
+        <v>502758.69934682</v>
+      </c>
+      <c r="G35" t="n">
+        <v>352210354.2895808</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9865913902611151</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9733689708696407</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.127735171872002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44613.83333333334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>699</v>
+      </c>
+      <c r="C36" t="n">
+        <v>703</v>
+      </c>
+      <c r="D36" t="n">
+        <v>681</v>
+      </c>
+      <c r="E36" t="n">
+        <v>687</v>
+      </c>
+      <c r="F36" t="n">
+        <v>785909.92989275</v>
+      </c>
+      <c r="G36" t="n">
+        <v>542068443.1667773</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>703.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9733689708696407</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.127735171872002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44613.875</v>
+      </c>
+      <c r="B37" t="n">
+        <v>685</v>
+      </c>
+      <c r="C37" t="n">
+        <v>689</v>
+      </c>
+      <c r="D37" t="n">
+        <v>675</v>
+      </c>
+      <c r="E37" t="n">
+        <v>678</v>
+      </c>
+      <c r="F37" t="n">
+        <v>489611.02315641</v>
+      </c>
+      <c r="G37" t="n">
+        <v>333289777.5266267</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>691.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9733689708696407</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.127735171872002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44613.91666666666</v>
+      </c>
+      <c r="B38" t="n">
+        <v>677</v>
+      </c>
+      <c r="C38" t="n">
+        <v>680</v>
+      </c>
+      <c r="D38" t="n">
+        <v>666</v>
+      </c>
+      <c r="E38" t="n">
+        <v>671</v>
+      </c>
+      <c r="F38" t="n">
+        <v>368637.59657294</v>
+      </c>
+      <c r="G38" t="n">
+        <v>247776071.1577555</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>681.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9733689708696407</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.127735171872002</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44613.95833333334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>671</v>
+      </c>
+      <c r="C39" t="n">
+        <v>704</v>
+      </c>
+      <c r="D39" t="n">
+        <v>668</v>
+      </c>
+      <c r="E39" t="n">
+        <v>702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>657477.2752005199</v>
+      </c>
+      <c r="G39" t="n">
+        <v>453951135.1508145</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>675.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.039691943127962</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.012003876703921</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B40" t="n">
+        <v>702</v>
+      </c>
+      <c r="C40" t="n">
+        <v>708</v>
+      </c>
+      <c r="D40" t="n">
+        <v>699</v>
+      </c>
+      <c r="E40" t="n">
+        <v>701</v>
+      </c>
+      <c r="F40" t="n">
+        <v>365754.16836802</v>
+      </c>
+      <c r="G40" t="n">
+        <v>257375784.6585644</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>712.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.012003876703921</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44614.04166666666</v>
+      </c>
+      <c r="B41" t="n">
+        <v>702</v>
+      </c>
+      <c r="C41" t="n">
+        <v>702</v>
+      </c>
+      <c r="D41" t="n">
+        <v>694</v>
+      </c>
+      <c r="E41" t="n">
+        <v>694</v>
+      </c>
+      <c r="F41" t="n">
+        <v>121267.58989185</v>
+      </c>
+      <c r="G41" t="n">
+        <v>84608795.29543039</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>704.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.012003876703921</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44614.08333333334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>695</v>
+      </c>
+      <c r="C42" t="n">
+        <v>698</v>
+      </c>
+      <c r="D42" t="n">
+        <v>680</v>
+      </c>
+      <c r="E42" t="n">
+        <v>681</v>
+      </c>
+      <c r="F42" t="n">
+        <v>112512.1163693</v>
+      </c>
+      <c r="G42" t="n">
+        <v>77530688.88214852</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>697.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9764840837396043</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9882056782841562</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.351591626039574</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44614.125</v>
+      </c>
+      <c r="B43" t="n">
+        <v>680</v>
+      </c>
+      <c r="C43" t="n">
+        <v>683</v>
+      </c>
+      <c r="D43" t="n">
+        <v>666</v>
+      </c>
+      <c r="E43" t="n">
+        <v>672</v>
+      </c>
+      <c r="F43" t="n">
+        <v>302908.49985019</v>
+      </c>
+      <c r="G43" t="n">
+        <v>203270649.7685499</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>685.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9882056782841562</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.351591626039574</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44614.16666666666</v>
+      </c>
+      <c r="B44" t="n">
+        <v>670</v>
+      </c>
+      <c r="C44" t="n">
+        <v>676</v>
+      </c>
+      <c r="D44" t="n">
+        <v>667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>674</v>
+      </c>
+      <c r="F44" t="n">
+        <v>103882.05766459</v>
+      </c>
+      <c r="G44" t="n">
+        <v>69645586.11566553</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>675.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9983706117612205</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9865955075744649</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.510698794179638</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44614.20833333334</v>
+      </c>
+      <c r="B45" t="n">
+        <v>674</v>
+      </c>
+      <c r="C45" t="n">
+        <v>680</v>
+      </c>
+      <c r="D45" t="n">
+        <v>672</v>
+      </c>
+      <c r="E45" t="n">
+        <v>678</v>
+      </c>
+      <c r="F45" t="n">
+        <v>33263.489652</v>
+      </c>
+      <c r="G45" t="n">
+        <v>22457319.43436632</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>676.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.001921087631151</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9884908440010154</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.323413303463578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44614.25</v>
+      </c>
+      <c r="B46" t="n">
+        <v>678</v>
+      </c>
+      <c r="C46" t="n">
+        <v>681</v>
+      </c>
+      <c r="D46" t="n">
+        <v>655</v>
+      </c>
+      <c r="E46" t="n">
+        <v>655</v>
+      </c>
+      <c r="F46" t="n">
+        <v>340663.55704431</v>
+      </c>
+      <c r="G46" t="n">
+        <v>226590857.3515283</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>680.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9626690182245738</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9515895103184379</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.969776181317813</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44614.29166666666</v>
+      </c>
+      <c r="B47" t="n">
+        <v>654</v>
+      </c>
+      <c r="C47" t="n">
+        <v>664</v>
+      </c>
+      <c r="D47" t="n">
+        <v>650</v>
+      </c>
+      <c r="E47" t="n">
+        <v>655</v>
+      </c>
+      <c r="F47" t="n">
+        <v>419573.63397493</v>
+      </c>
+      <c r="G47" t="n">
+        <v>274300004.7909986</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>661.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.9897249924448475</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.941811920910512</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.935937441467455</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44614.33333333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>655</v>
+      </c>
+      <c r="C48" t="n">
+        <v>657</v>
+      </c>
+      <c r="D48" t="n">
+        <v>632</v>
+      </c>
+      <c r="E48" t="n">
+        <v>637</v>
+      </c>
+      <c r="F48" t="n">
+        <v>674593.23395922</v>
+      </c>
+      <c r="G48" t="n">
+        <v>433404042.9089721</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.941811920910512</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.935937441467455</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44614.375</v>
+      </c>
+      <c r="B49" t="n">
+        <v>637</v>
+      </c>
+      <c r="C49" t="n">
+        <v>647</v>
+      </c>
+      <c r="D49" t="n">
+        <v>629</v>
+      </c>
+      <c r="E49" t="n">
+        <v>642</v>
+      </c>
+      <c r="F49" t="n">
+        <v>349704.42268604</v>
+      </c>
+      <c r="G49" t="n">
+        <v>222483467.248424</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9961210240496509</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.938158655119548</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.296930701973793</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44614.41666666666</v>
+      </c>
+      <c r="B50" t="n">
+        <v>643</v>
+      </c>
+      <c r="C50" t="n">
+        <v>645</v>
+      </c>
+      <c r="D50" t="n">
+        <v>630</v>
+      </c>
+      <c r="E50" t="n">
+        <v>634</v>
+      </c>
+      <c r="F50" t="n">
+        <v>222122.38058638</v>
+      </c>
+      <c r="G50" t="n">
+        <v>140860647.09898</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>648.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.938158655119548</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.296930701973793</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44614.45833333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>636</v>
+      </c>
+      <c r="C51" t="n">
+        <v>636</v>
+      </c>
+      <c r="D51" t="n">
+        <v>630</v>
+      </c>
+      <c r="E51" t="n">
+        <v>633</v>
+      </c>
+      <c r="F51" t="n">
+        <v>114571.86156624</v>
+      </c>
+      <c r="G51" t="n">
+        <v>72437721.92956021</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>640.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.938158655119548</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.296930701973793</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44614.5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>632</v>
+      </c>
+      <c r="C52" t="n">
+        <v>632</v>
+      </c>
+      <c r="D52" t="n">
+        <v>613</v>
+      </c>
+      <c r="E52" t="n">
+        <v>616</v>
+      </c>
+      <c r="F52" t="n">
+        <v>800716.76000654</v>
+      </c>
+      <c r="G52" t="n">
+        <v>495742490.9888782</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>633.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.938158655119548</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7.296930701973793</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44614.54166666666</v>
+      </c>
+      <c r="B53" t="n">
+        <v>617</v>
+      </c>
+      <c r="C53" t="n">
+        <v>620</v>
+      </c>
+      <c r="D53" t="n">
+        <v>615</v>
+      </c>
+      <c r="E53" t="n">
+        <v>616</v>
+      </c>
+      <c r="F53" t="n">
+        <v>155259.00514493</v>
+      </c>
+      <c r="G53" t="n">
+        <v>95955447.93941344</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>622.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.938158655119548</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.296930701973793</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44614.58333333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>616</v>
+      </c>
+      <c r="C54" t="n">
+        <v>630</v>
+      </c>
+      <c r="D54" t="n">
+        <v>613</v>
+      </c>
+      <c r="E54" t="n">
+        <v>620</v>
+      </c>
+      <c r="F54" t="n">
+        <v>155614.95317069</v>
+      </c>
+      <c r="G54" t="n">
+        <v>96243790.74505372</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>617.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.004048582995951</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9419568682981696</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.921614631941302</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44614.625</v>
+      </c>
+      <c r="B55" t="n">
+        <v>620</v>
+      </c>
+      <c r="C55" t="n">
+        <v>631</v>
+      </c>
+      <c r="D55" t="n">
+        <v>620</v>
+      </c>
+      <c r="E55" t="n">
+        <v>629</v>
+      </c>
+      <c r="F55" t="n">
+        <v>55483.0563771</v>
+      </c>
+      <c r="G55" t="n">
+        <v>34704521.75259193</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>625.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.006239001759718</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9478337388570608</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.340898421838228</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44614.66666666666</v>
+      </c>
+      <c r="B56" t="n">
+        <v>629</v>
+      </c>
+      <c r="C56" t="n">
+        <v>631</v>
+      </c>
+      <c r="D56" t="n">
+        <v>624</v>
+      </c>
+      <c r="E56" t="n">
+        <v>626</v>
+      </c>
+      <c r="F56" t="n">
+        <v>34676.88553316</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21780409.39848339</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>632.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9478337388570608</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.340898421838228</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44614.70833333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>627</v>
+      </c>
+      <c r="C57" t="n">
+        <v>635</v>
+      </c>
+      <c r="D57" t="n">
+        <v>625</v>
+      </c>
+      <c r="E57" t="n">
+        <v>635</v>
+      </c>
+      <c r="F57" t="n">
+        <v>93158.35659727</v>
+      </c>
+      <c r="G57" t="n">
+        <v>58656223.57902638</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>629.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.009378477189636</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.956722975956499</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.46251867408565</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44614.75</v>
+      </c>
+      <c r="B58" t="n">
+        <v>636</v>
+      </c>
+      <c r="C58" t="n">
+        <v>640</v>
+      </c>
+      <c r="D58" t="n">
+        <v>633</v>
+      </c>
+      <c r="E58" t="n">
+        <v>637</v>
+      </c>
+      <c r="F58" t="n">
+        <v>187567.75098911</v>
+      </c>
+      <c r="G58" t="n">
+        <v>119525929.3430866</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>639</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9968701095461658</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.953728537847089</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.758410634417151</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44614.79166666666</v>
+      </c>
+      <c r="B59" t="n">
+        <v>636</v>
+      </c>
+      <c r="C59" t="n">
+        <v>660</v>
+      </c>
+      <c r="D59" t="n">
+        <v>631</v>
+      </c>
+      <c r="E59" t="n">
+        <v>657</v>
+      </c>
+      <c r="F59" t="n">
+        <v>299266.31115039</v>
+      </c>
+      <c r="G59" t="n">
+        <v>192666312.5629637</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>638.1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.029619181946403</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9819771969370592</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.967051852079717</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44614.83333333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>658</v>
+      </c>
+      <c r="C60" t="n">
+        <v>658</v>
+      </c>
+      <c r="D60" t="n">
+        <v>637</v>
+      </c>
+      <c r="E60" t="n">
+        <v>640</v>
+      </c>
+      <c r="F60" t="n">
+        <v>199690.43995527</v>
+      </c>
+      <c r="G60" t="n">
+        <v>129700079.733586</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>666.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9819771969370592</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.967051852079717</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44614.875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>639</v>
+      </c>
+      <c r="C61" t="n">
+        <v>644</v>
+      </c>
+      <c r="D61" t="n">
+        <v>635</v>
+      </c>
+      <c r="E61" t="n">
+        <v>641</v>
+      </c>
+      <c r="F61" t="n">
+        <v>43560.07767355</v>
+      </c>
+      <c r="G61" t="n">
+        <v>27860749.16069513</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>645.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9819771969370592</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.967051852079717</v>
       </c>
     </row>
   </sheetData>
